--- a/src/test/java/common/test_data/users/Users.xlsx
+++ b/src/test/java/common/test_data/users/Users.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -61,6 +61,33 @@
   </si>
   <si>
     <t>TestPassw0rd@123!$RrRKuBeIod</t>
+  </si>
+  <si>
+    <t>TestUser_1ASltkyXYuI</t>
+  </si>
+  <si>
+    <t>automation_test+1611390700+afMLZuyHBy@gmail.com</t>
+  </si>
+  <si>
+    <t>TestPassw0rd@123!$wAFQkDdmos</t>
+  </si>
+  <si>
+    <t>TestUser_1mevqxjIwaa</t>
+  </si>
+  <si>
+    <t>automation_test+1611426616+mzWnKOpXgz@gmail.com</t>
+  </si>
+  <si>
+    <t>TestPassw0rd@123!$bSYYzpxNUl</t>
+  </si>
+  <si>
+    <t>TestUser_1EpFdZwhfiQ</t>
+  </si>
+  <si>
+    <t>automation_test+1611426867+bLXuuqccZE@gmail.com</t>
+  </si>
+  <si>
+    <t>TestPassw0rd@123!$fIRELWtCja</t>
   </si>
 </sst>
 </file>
@@ -426,7 +453,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F8A7C7-837A-425F-9758-BEEBC1A7DFF8}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
@@ -472,6 +499,39 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/test/java/common/test_data/users/Users.xlsx
+++ b/src/test/java/common/test_data/users/Users.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -88,6 +88,15 @@
   </si>
   <si>
     <t>TestPassw0rd@123!$fIRELWtCja</t>
+  </si>
+  <si>
+    <t>TestUser_1DKUKxoJrIT</t>
+  </si>
+  <si>
+    <t>automation_test+1611435001+RuarLPPYUp@gmail.com</t>
+  </si>
+  <si>
+    <t>TestPassw0rd@123!$lOOtqQERdv</t>
   </si>
 </sst>
 </file>
@@ -453,7 +462,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F8A7C7-837A-425F-9758-BEEBC1A7DFF8}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
@@ -532,6 +541,17 @@
         <v>17</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/test/java/common/test_data/users/Users.xlsx
+++ b/src/test/java/common/test_data/users/Users.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -97,6 +97,24 @@
   </si>
   <si>
     <t>TestPassw0rd@123!$lOOtqQERdv</t>
+  </si>
+  <si>
+    <t>TestUser_1DwkLUsRJoz</t>
+  </si>
+  <si>
+    <t>automation_test+1611524835+ZswhBvGZmY@gmail.com</t>
+  </si>
+  <si>
+    <t>TestPassw0rd@123!$NLgifbitpa</t>
+  </si>
+  <si>
+    <t>TestUser_1lpymidDWHc</t>
+  </si>
+  <si>
+    <t>automation_test+1611524924+PUDmgveUkX@gmail.com</t>
+  </si>
+  <si>
+    <t>TestPassw0rd@123!$BDegurjoCS</t>
   </si>
 </sst>
 </file>
@@ -462,7 +480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F8A7C7-837A-425F-9758-BEEBC1A7DFF8}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
@@ -552,6 +570,28 @@
         <v>20</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/test/java/common/test_data/users/Users.xlsx
+++ b/src/test/java/common/test_data/users/Users.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
@@ -115,6 +115,24 @@
   </si>
   <si>
     <t>TestPassw0rd@123!$BDegurjoCS</t>
+  </si>
+  <si>
+    <t>TestUser_1YZqdllFCAH</t>
+  </si>
+  <si>
+    <t>automation_test+1611604840+sFAAUQrnhA@gmail.com</t>
+  </si>
+  <si>
+    <t>TestPassw0rd@123!$vLCobbnRjq</t>
+  </si>
+  <si>
+    <t>TestUser_1JFvGdDLzYZ</t>
+  </si>
+  <si>
+    <t>automation_test+1611605111+kAfLuLlOpA@gmail.com</t>
+  </si>
+  <si>
+    <t>TestPassw0rd@123!$HATMBGCnZk</t>
   </si>
 </sst>
 </file>
@@ -480,7 +498,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F8A7C7-837A-425F-9758-BEEBC1A7DFF8}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
@@ -592,6 +610,28 @@
         <v>26</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/test/java/common/test_data/users/Users.xlsx
+++ b/src/test/java/common/test_data/users/Users.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Name</t>
   </si>
@@ -133,6 +133,33 @@
   </si>
   <si>
     <t>TestPassw0rd@123!$HATMBGCnZk</t>
+  </si>
+  <si>
+    <t>TestUser_1RhqmPHRqBX</t>
+  </si>
+  <si>
+    <t>automation_test+1611606801+vsoZPFilUB@gmail.com</t>
+  </si>
+  <si>
+    <t>TestPassw0rd@123!$iNjricPVYe</t>
+  </si>
+  <si>
+    <t>TestUser_1wNryEaufkU</t>
+  </si>
+  <si>
+    <t>automation_test+1611865016+nsdCECRFMB@gmail.com</t>
+  </si>
+  <si>
+    <t>TestPassw0rd@123!$dYBqAeqWgd</t>
+  </si>
+  <si>
+    <t>TestUser_1pkOsOGpDHq</t>
+  </si>
+  <si>
+    <t>automation_test+1611865254+PiaIjdhnFn@gmail.com</t>
+  </si>
+  <si>
+    <t>TestPassw0rd@123!$itpmOeGXSJ</t>
   </si>
 </sst>
 </file>
@@ -498,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F8A7C7-837A-425F-9758-BEEBC1A7DFF8}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
@@ -632,6 +659,39 @@
         <v>32</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/test/java/common/test_data/users/Users.xlsx
+++ b/src/test/java/common/test_data/users/Users.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Name</t>
   </si>
@@ -160,6 +160,24 @@
   </si>
   <si>
     <t>TestPassw0rd@123!$itpmOeGXSJ</t>
+  </si>
+  <si>
+    <t>TestUser_1RxCMcmIvwq</t>
+  </si>
+  <si>
+    <t>automation_test+1611996289+GclxBlbNzQ@gmail.com</t>
+  </si>
+  <si>
+    <t>TestPassw0rd@123!$pirJLuryeG</t>
+  </si>
+  <si>
+    <t>TestUser_1DLdJVdfdTU</t>
+  </si>
+  <si>
+    <t>automation_test+1611996547+tgtkLQzoIK@gmail.com</t>
+  </si>
+  <si>
+    <t>TestPassw0rd@123!$AzDSrNFzmm</t>
   </si>
 </sst>
 </file>
@@ -525,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F8A7C7-837A-425F-9758-BEEBC1A7DFF8}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
@@ -692,6 +710,28 @@
         <v>41</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
